--- a/testcases/pdf_testcases.xlsx
+++ b/testcases/pdf_testcases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="50">
   <si>
     <t>Filename</t>
   </si>
@@ -139,13 +139,40 @@
   </si>
   <si>
     <t>Features</t>
+  </si>
+  <si>
+    <t>starbucks_textonly-msword</t>
+  </si>
+  <si>
+    <t>starbucks_textonly-primopdf</t>
+  </si>
+  <si>
+    <t>generated by MSWord's embedded "save as PDF"</t>
+  </si>
+  <si>
+    <t>generated by primopdf plugin through MSWord</t>
+  </si>
+  <si>
+    <t>&lt;sect&gt;, &lt;p&gt;</t>
+  </si>
+  <si>
+    <t>starbucks_imageonly-msword</t>
+  </si>
+  <si>
+    <t>starbucks_imageonly-primopdf</t>
+  </si>
+  <si>
+    <t>&lt;sect&gt;, &lt;p&gt;, &lt;figure&gt;</t>
+  </si>
+  <si>
+    <t>tagged figure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +191,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -189,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -197,6 +230,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -493,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -677,57 +714,60 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="A9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="2">
-        <v>3</v>
-      </c>
-      <c r="F9" t="s">
-        <v>37</v>
+      <c r="D9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="A10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>15</v>
@@ -736,89 +776,178 @@
         <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="G11" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>37</v>
+      <c r="A12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>39</v>
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
+      <c r="D18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
         <v>31</v>
       </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" t="s">
         <v>30</v>
       </c>
     </row>

--- a/testcases/pdf_testcases.xlsx
+++ b/testcases/pdf_testcases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="60">
   <si>
     <t>Filename</t>
   </si>
@@ -147,9 +147,6 @@
     <t>starbucks_textonly-primopdf</t>
   </si>
   <si>
-    <t>generated by MSWord's embedded "save as PDF"</t>
-  </si>
-  <si>
     <t>generated by primopdf plugin through MSWord</t>
   </si>
   <si>
@@ -166,6 +163,39 @@
   </si>
   <si>
     <t>tagged figure</t>
+  </si>
+  <si>
+    <t>indesign-form</t>
+  </si>
+  <si>
+    <t>indesign-image</t>
+  </si>
+  <si>
+    <t>indesign-tables</t>
+  </si>
+  <si>
+    <t>indesign-text-only</t>
+  </si>
+  <si>
+    <t>created in InDesign CS3</t>
+  </si>
+  <si>
+    <t>&lt;document&gt;, &lt;article&gt;, &lt;story&gt;</t>
+  </si>
+  <si>
+    <t>&lt;document&gt;, &lt;article&gt;, &lt;figure&gt;</t>
+  </si>
+  <si>
+    <t>text, forms</t>
+  </si>
+  <si>
+    <t>image only</t>
+  </si>
+  <si>
+    <t>blank &lt;Document&gt; &lt;/Document&gt; xml file</t>
+  </si>
+  <si>
+    <t>generated by MSWord's "save as PDF"</t>
   </si>
 </sst>
 </file>
@@ -530,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -544,7 +574,7 @@
     <col min="4" max="4" width="9.5703125" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -591,272 +621,275 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>37</v>
+      <c r="A3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="4">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>37</v>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="4">
-        <v>3</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>39</v>
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" t="s">
-        <v>43</v>
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="6">
-        <v>1</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" t="s">
-        <v>44</v>
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="B13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="6">
-        <v>1</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="2">
-        <v>3</v>
-      </c>
-      <c r="F13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>15</v>
@@ -865,89 +898,178 @@
         <v>1</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="G15" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>37</v>
+      <c r="A16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>39</v>
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
+      <c r="D22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
         <v>12</v>
       </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
         <v>31</v>
       </c>
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" t="s">
         <v>30</v>
       </c>
     </row>

--- a/testcases/pdf_testcases.xlsx
+++ b/testcases/pdf_testcases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="69">
   <si>
     <t>Filename</t>
   </si>
@@ -135,9 +135,6 @@
     <t>tagged text</t>
   </si>
   <si>
-    <t>invalid xml file (due to invalid characters such as spaces in a tag ie: &lt;heading 1&gt;); otherwise valid</t>
-  </si>
-  <si>
     <t>Features</t>
   </si>
   <si>
@@ -196,6 +193,36 @@
   </si>
   <si>
     <t>generated by MSWord's "save as PDF"</t>
+  </si>
+  <si>
+    <t>(fuller xml than itext. See file for more details.)</t>
+  </si>
+  <si>
+    <t>Same*</t>
+  </si>
+  <si>
+    <t>headings contain id names, otherwise same*</t>
+  </si>
+  <si>
+    <t>* = all Adobe Acrobat xml outputs have information about the xml/pdf file that itext does not create.</t>
+  </si>
+  <si>
+    <t>invalid xml file (due to invalid characters such as spaces in a tag ie: &lt;heading 1&gt; is translated to &lt;heading#201&gt;); otherwise valid</t>
+  </si>
+  <si>
+    <t>Text next to outline bullets or checkboxes is not included in the itext vers.</t>
+  </si>
+  <si>
+    <t>Acrobat Pro Output Comparisons to iText</t>
+  </si>
+  <si>
+    <t>contains filename of figure (itext does not)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>contains full tagging</t>
   </si>
 </sst>
 </file>
@@ -560,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -571,13 +598,14 @@
     <col min="1" max="1" width="27.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" customWidth="1"/>
+    <col min="7" max="7" width="33.28515625" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,7 +613,7 @@
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>25</v>
@@ -597,10 +625,13 @@
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -619,59 +650,71 @@
       <c r="F2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>27</v>
@@ -683,18 +726,21 @@
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>17</v>
@@ -706,13 +752,16 @@
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>59</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -731,8 +780,14 @@
       <c r="F7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -752,10 +807,13 @@
         <v>38</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -774,8 +832,14 @@
       <c r="F9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -794,8 +858,14 @@
       <c r="F10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
@@ -812,10 +882,16 @@
         <v>3</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>63</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -834,39 +910,48 @@
       <c r="F12" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="B14" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>15</v>
@@ -878,15 +963,18 @@
         <v>37</v>
       </c>
       <c r="G14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>17</v>
@@ -900,13 +988,16 @@
       <c r="F15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>15</v>
@@ -924,10 +1015,13 @@
         <v>37</v>
       </c>
       <c r="G16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>68</v>
+      </c>
+      <c r="H16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -946,8 +1040,14 @@
       <c r="F17" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
@@ -966,11 +1066,14 @@
       <c r="F18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
@@ -989,8 +1092,14 @@
       <c r="F19" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1009,8 +1118,14 @@
       <c r="F20" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="3" t="s">
         <v>35</v>
       </c>
@@ -1027,10 +1142,16 @@
         <v>1</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>63</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
         <v>36</v>
       </c>
@@ -1049,8 +1170,14 @@
       <c r="F22" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="G22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1070,7 +1197,15 @@
         <v>37</v>
       </c>
       <c r="G23" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/testcases/pdf_testcases.xlsx
+++ b/testcases/pdf_testcases.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="120" yWindow="60" windowWidth="19095" windowHeight="7395"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="All test cases" sheetId="1" r:id="rId1"/>
+    <sheet name="Unit test cases" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="90">
   <si>
     <t>Filename</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Layers</t>
   </si>
   <si>
-    <t>&lt;sect&gt;, &lt;heading&gt;, &lt;normal&gt;, etc.</t>
-  </si>
-  <si>
     <t>text and tables</t>
   </si>
   <si>
@@ -223,6 +220,78 @@
   </si>
   <si>
     <t>contains full tagging</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Figure</t>
+  </si>
+  <si>
+    <t>Forms</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>(fuller xml than itext. See acrobatindesign-form.xml for more details.)</t>
+  </si>
+  <si>
+    <t>(fuller xml than itext. See acrobatindesign-image.xml for more details.)</t>
+  </si>
+  <si>
+    <t>(fuller xml than itext. See acrobatindesign-tables.xml for more details.)</t>
+  </si>
+  <si>
+    <t>(fuller xml than itext. See acrobatindesign-text-only.xml for more details.)</t>
+  </si>
+  <si>
+    <t>&lt;document&gt;, &lt;article&gt;, &lt;story&gt;, &lt;NormalParagraphStyle&gt;</t>
+  </si>
+  <si>
+    <t>(contains full tagging. See acrobatrnua-noforms.xml for more details)</t>
+  </si>
+  <si>
+    <t>numbered-list</t>
+  </si>
+  <si>
+    <t>numbered list</t>
+  </si>
+  <si>
+    <t>&lt;sect&gt;, &lt;l&gt;, &lt;li&gt;, &lt;lbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;heading#201&gt; (invalid xml) 
+&lt;heading#202&gt; (invalid xml)
+Blank &lt;lbody&gt;&lt;/lbody&gt; tag</t>
+  </si>
+  <si>
+    <t>&lt;heading-1&gt;
+&lt;heading-2&gt; 
+Text exists in &lt;lbody&gt; tag</t>
+  </si>
+  <si>
+    <t>&lt;sect&gt;, &lt;h1&gt;, &lt;h2&gt;, &lt;p&gt;, &lt;l&gt;, &lt;li&gt;, &lt;lbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;heading#201&gt; (invalid xml) 
+&lt;heading#202&gt; (invalid xml)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;heading-1&gt;
+&lt;heading-2&gt; </t>
+  </si>
+  <si>
+    <t>&lt;sect&gt;, &lt;heading 1&gt;, &lt;heading 2&gt;, &lt;normal&gt;</t>
+  </si>
+  <si>
+    <t>&lt;sect&gt;, &lt;heading 1&gt;, &lt;normal&gt;, &lt;table&gt;, &lt;tr&gt;, &lt;td&gt;</t>
+  </si>
+  <si>
+    <t>&lt;sect&gt;, &lt;heading 1&gt;, &lt;normal&gt;, &lt;table&gt;, &lt;tr&gt;, &lt;td&gt;, &lt;th&gt;</t>
   </si>
 </sst>
 </file>
@@ -279,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -292,6 +361,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,25 +659,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
-    <col min="7" max="7" width="33.28515625" customWidth="1"/>
-    <col min="8" max="8" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" customWidth="1"/>
+    <col min="11" max="11" width="33.28515625" customWidth="1"/>
+    <col min="12" max="12" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,599 +689,784 @@
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" t="s">
-        <v>68</v>
-      </c>
       <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="L2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="K5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="3" t="s">
+      <c r="C6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" t="s">
-        <v>68</v>
-      </c>
       <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="L7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="H8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="4">
         <v>2</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="J8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="2">
         <v>6</v>
       </c>
-      <c r="F9" t="s">
+      <c r="J9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="K10" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="L11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="4">
+        <v>3</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="4">
+        <v>3</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="6">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" t="s">
+        <v>67</v>
+      </c>
+      <c r="L15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="6">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" t="s">
+        <v>67</v>
+      </c>
+      <c r="L17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="2">
+        <v>3</v>
+      </c>
+      <c r="J18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" t="s">
+        <v>67</v>
+      </c>
+      <c r="L18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K21" t="s">
+        <v>67</v>
+      </c>
+      <c r="L21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="H23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="4">
-        <v>3</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="L23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="4">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="6">
-        <v>1</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" t="s">
-        <v>68</v>
-      </c>
-      <c r="H16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="2">
-        <v>3</v>
-      </c>
-      <c r="F17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" t="s">
-        <v>68</v>
-      </c>
-      <c r="H17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H18" s="3" t="s">
+      <c r="L24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="4">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="4">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="3" t="s">
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
         <v>61</v>
-      </c>
-      <c r="H21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="4">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" t="s">
-        <v>68</v>
-      </c>
-      <c r="H23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1216,13 +1477,355 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B9:B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="60">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="4">
+        <v>3</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4">
+        <v>3</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30">
+      <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/testcases/pdf_testcases.xlsx
+++ b/testcases/pdf_testcases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="110">
   <si>
     <t>Filename</t>
   </si>
@@ -156,9 +156,6 @@
     <t>&lt;sect&gt;, &lt;p&gt;, &lt;figure&gt;</t>
   </si>
   <si>
-    <t>tagged figure</t>
-  </si>
-  <si>
     <t>indesign-form</t>
   </si>
   <si>
@@ -201,9 +198,6 @@
     <t>headings contain id names, otherwise same*</t>
   </si>
   <si>
-    <t>* = all Adobe Acrobat xml outputs have information about the xml/pdf file that itext does not create.</t>
-  </si>
-  <si>
     <t>invalid xml file (due to invalid characters such as spaces in a tag ie: &lt;heading 1&gt; is translated to &lt;heading#201&gt;); otherwise valid</t>
   </si>
   <si>
@@ -211,9 +205,6 @@
   </si>
   <si>
     <t>Acrobat Pro Output Comparisons to iText</t>
-  </si>
-  <si>
-    <t>contains filename of figure (itext does not)</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -292,6 +283,75 @@
   </si>
   <si>
     <t>&lt;sect&gt;, &lt;heading 1&gt;, &lt;normal&gt;, &lt;table&gt;, &lt;tr&gt;, &lt;td&gt;, &lt;th&gt;</t>
+  </si>
+  <si>
+    <t>(contains full tagging. See acrobattables-tagged.xml for more details)</t>
+  </si>
+  <si>
+    <t>(contains full tagging. See acrobattables-tagged-edited.xml for more details)</t>
+  </si>
+  <si>
+    <t>(contains full tagging. See acrobattestdocument-images.xml for more details)</t>
+  </si>
+  <si>
+    <t>starbucks_untaggedimageonly-msword</t>
+  </si>
+  <si>
+    <t>tagged xml file</t>
+  </si>
+  <si>
+    <t>* = all Adobe Acrobat xml outputs have information about the xml/pdf file (metadata) that itext does not create.</t>
+  </si>
+  <si>
+    <t>autofills for image tag w/ filename of image</t>
+  </si>
+  <si>
+    <t>&lt;Figure Alt="Starbucks Interior"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Figure Alt="starbucks.jpg"&gt; (autofills for image tag w/ filename of image)</t>
+  </si>
+  <si>
+    <t>generated by MSWord's "save as PDF"; untagged image</t>
+  </si>
+  <si>
+    <t>generated by MSWord's "save as PDF"; image tagged via Acrobat Pro</t>
+  </si>
+  <si>
+    <t>tables-example2</t>
+  </si>
+  <si>
+    <t>&lt;sect&gt;, &lt;table&gt;, &lt;tr&gt;, &lt;td&gt;, &lt;p&gt;</t>
+  </si>
+  <si>
+    <t>table only</t>
+  </si>
+  <si>
+    <t>generated by MSWord's "save as PDF"; tagged later with Acrobat Pro</t>
+  </si>
+  <si>
+    <t>&lt;Table Alt="Table of Names and Colors"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Table&gt; … &lt;/Table&gt;</t>
+  </si>
+  <si>
+    <t>&lt;figure&gt;&lt;/figure&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;figure&gt;&lt;/figure&gt; </t>
+  </si>
+  <si>
+    <t>tagged table; alt text missing</t>
+  </si>
+  <si>
+    <t>tagged xml file; alt text missing</t>
+  </si>
+  <si>
+    <t>contains alternative table text</t>
+  </si>
+  <si>
+    <t>contains alternative image text</t>
   </si>
 </sst>
 </file>
@@ -348,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -364,6 +424,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -659,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -675,7 +744,7 @@
     <col min="6" max="6" width="8.85546875" customWidth="1"/>
     <col min="7" max="7" width="23.5703125" customWidth="1"/>
     <col min="8" max="8" width="7.28515625" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" customWidth="1"/>
     <col min="10" max="10" width="18.85546875" customWidth="1"/>
     <col min="11" max="11" width="33.28515625" customWidth="1"/>
     <col min="12" max="12" width="28.140625" customWidth="1"/>
@@ -689,16 +758,16 @@
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>38</v>
@@ -713,7 +782,7 @@
         <v>1</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>27</v>
@@ -727,10 +796,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -747,29 +816,29 @@
         <v>36</v>
       </c>
       <c r="K2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>15</v>
@@ -778,59 +847,61 @@
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="K4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -844,24 +915,24 @@
         <v>1</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -876,13 +947,13 @@
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -893,11 +964,11 @@
         <v>15</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" t="s">
@@ -913,10 +984,10 @@
         <v>36</v>
       </c>
       <c r="K7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -927,7 +998,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -945,7 +1016,7 @@
         <v>37</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>32</v>
@@ -959,14 +1030,15 @@
         <v>15</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" t="s">
-        <v>72</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="2"/>
       <c r="G9" t="s">
         <v>19</v>
       </c>
@@ -980,24 +1052,27 @@
         <v>36</v>
       </c>
       <c r="K9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>72</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
       <c r="G10" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>15</v>
@@ -1009,7 +1084,7 @@
         <v>37</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1020,11 +1095,13 @@
         <v>15</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" t="s">
-        <v>72</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="2"/>
       <c r="G11" t="s">
         <v>20</v>
       </c>
@@ -1038,10 +1115,10 @@
         <v>36</v>
       </c>
       <c r="K11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1051,13 +1128,13 @@
       <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>72</v>
+      <c r="C12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>22</v>
@@ -1069,13 +1146,13 @@
         <v>3</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12" t="s">
         <v>63</v>
-      </c>
-      <c r="L12" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1085,12 +1162,12 @@
       <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="C13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
       <c r="G13" s="3" t="s">
         <v>31</v>
       </c>
@@ -1104,10 +1181,10 @@
         <v>36</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1117,14 +1194,14 @@
       <c r="B14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="4"/>
       <c r="G14" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>15</v>
@@ -1133,13 +1210,13 @@
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L14" t="s">
-        <v>57</v>
+        <v>109</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1149,14 +1226,14 @@
       <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="6"/>
       <c r="G15" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>15</v>
@@ -1168,7 +1245,7 @@
         <v>36</v>
       </c>
       <c r="K15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L15" t="s">
         <v>41</v>
@@ -1181,12 +1258,12 @@
       <c r="B16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="C16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
       <c r="G16" s="3" t="s">
         <v>17</v>
       </c>
@@ -1200,10 +1277,10 @@
         <v>37</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1213,12 +1290,12 @@
       <c r="B17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="C17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="5" t="s">
         <v>17</v>
       </c>
@@ -1232,241 +1309,315 @@
         <v>36</v>
       </c>
       <c r="K17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="4">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
         <v>10</v>
       </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" t="s">
         <v>17</v>
       </c>
-      <c r="H18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="2">
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="2">
         <v>3</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J19" t="s">
         <v>36</v>
       </c>
-      <c r="K18" t="s">
-        <v>67</v>
-      </c>
-      <c r="L18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="4">
-        <v>1</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>28</v>
+      <c r="K19" t="s">
+        <v>64</v>
+      </c>
+      <c r="L19" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="3" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+        <v>99</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
       <c r="G20" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="4">
-        <v>1</v>
-      </c>
-      <c r="J20" s="3" t="s">
+      <c r="H21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="4">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="2">
-        <v>1</v>
-      </c>
-      <c r="J21" t="s">
-        <v>36</v>
-      </c>
-      <c r="K21" t="s">
-        <v>67</v>
-      </c>
-      <c r="L21" t="s">
-        <v>66</v>
+      <c r="K21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" t="s">
+        <v>64</v>
+      </c>
+      <c r="L23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="B24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="4">
-        <v>1</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K22" s="3" t="s">
+      <c r="H24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="4">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="3" t="s">
+      <c r="K24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3" t="s">
+      <c r="B25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="4">
-        <v>1</v>
-      </c>
-      <c r="J23" s="3" t="s">
+      <c r="H25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G24" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="2">
-        <v>1</v>
-      </c>
-      <c r="J24" t="s">
-        <v>36</v>
-      </c>
-      <c r="K24" t="s">
-        <v>67</v>
-      </c>
-      <c r="L24" t="s">
-        <v>29</v>
+      <c r="K25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L25" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>36</v>
+      </c>
+      <c r="K26" t="s">
+        <v>64</v>
+      </c>
+      <c r="L26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1477,10 +1628,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B9:B10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1488,7 +1639,8 @@
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" customWidth="1"/>
     <col min="8" max="8" width="28.85546875" customWidth="1"/>
-    <col min="9" max="9" width="25.42578125" customWidth="1"/>
+    <col min="9" max="9" width="32.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1499,16 +1651,16 @@
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>23</v>
@@ -1517,7 +1669,7 @@
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>27</v>
@@ -1525,70 +1677,70 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G2" s="4">
         <v>1</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4">
         <v>1</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1596,24 +1748,24 @@
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1622,41 +1774,41 @@
         <v>1</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="60">
-      <c r="A6" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="45">
+      <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="C6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="9">
         <v>3</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>83</v>
+      <c r="H6" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1664,10 +1816,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -1679,10 +1831,10 @@
         <v>36</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1695,62 +1847,58 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4">
         <v>1</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>57</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="3"/>
       <c r="G9" s="4">
         <v>1</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>28</v>
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1758,57 +1906,54 @@
         <v>1</v>
       </c>
       <c r="H10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="30">
-      <c r="A11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="J11" t="s">
-        <v>66</v>
+      <c r="J11" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
-        <v>72</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4">
         <v>1</v>
@@ -1817,10 +1962,66 @@
         <v>36</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="J12" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30">
+      <c r="A13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/testcases/pdf_testcases.xlsx
+++ b/testcases/pdf_testcases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="19095" windowHeight="7395"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="19095" windowHeight="7395" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="All test cases" sheetId="1" r:id="rId1"/>
@@ -330,12 +330,6 @@
     <t>generated by MSWord's "save as PDF"; tagged later with Acrobat Pro</t>
   </si>
   <si>
-    <t>&lt;Table Alt="Table of Names and Colors"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Table&gt; … &lt;/Table&gt;</t>
-  </si>
-  <si>
     <t>&lt;figure&gt;&lt;/figure&gt;</t>
   </si>
   <si>
@@ -352,6 +346,14 @@
   </si>
   <si>
     <t>contains alternative image text</t>
+  </si>
+  <si>
+    <t>&lt;Table&gt; … &lt;/Table&gt;
+Extra &lt;span&gt;&lt;/span&gt; tags</t>
+  </si>
+  <si>
+    <t>&lt;Table Alt="Table of Names and Colors"&gt;
+No &lt;span&gt; tags</t>
   </si>
 </sst>
 </file>
@@ -408,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -421,9 +423,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -730,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1210,10 +1209,10 @@
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>97</v>
@@ -1404,10 +1403,10 @@
         <v>1</v>
       </c>
       <c r="J20" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K20" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>101</v>
@@ -1630,8 +1629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1639,7 +1638,7 @@
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" customWidth="1"/>
     <col min="8" max="8" width="28.85546875" customWidth="1"/>
-    <col min="9" max="9" width="32.5703125" customWidth="1"/>
+    <col min="9" max="9" width="37.140625" customWidth="1"/>
     <col min="10" max="10" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1676,27 +1675,27 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="4">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="C2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="8">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="7" t="s">
         <v>70</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -1704,25 +1703,25 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="7" t="s">
         <v>71</v>
       </c>
       <c r="J3" s="3" t="s">
@@ -1730,27 +1729,27 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="C4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="7" t="s">
         <v>72</v>
       </c>
       <c r="J4" s="3" t="s">
@@ -1758,25 +1757,25 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="C5" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="7" t="s">
         <v>73</v>
       </c>
       <c r="J5" s="3" t="s">
@@ -1784,27 +1783,27 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="45">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="9">
+      <c r="C6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="8">
         <v>3</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="9" t="s">
         <v>80</v>
       </c>
       <c r="J6" t="s">
@@ -1812,25 +1811,25 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4">
+      <c r="C7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="7" t="s">
         <v>75</v>
       </c>
       <c r="J7" t="s">
@@ -1838,102 +1837,102 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="I8" s="3" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>94</v>
       </c>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I9" s="3" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>95</v>
       </c>
       <c r="J9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:10" ht="35.25" customHeight="1">
+      <c r="A10" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>102</v>
+      <c r="D10" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3" t="s">
+      <c r="C11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="7" t="s">
         <v>87</v>
       </c>
       <c r="J11" s="3" t="s">
@@ -1941,27 +1940,27 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3" t="s">
+      <c r="C12" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="7" t="s">
         <v>88</v>
       </c>
       <c r="J12" t="s">
@@ -1969,27 +1968,27 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="30">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1</v>
-      </c>
-      <c r="H13" s="7" t="s">
+      <c r="C13" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1</v>
+      </c>
+      <c r="H13" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="9" t="s">
         <v>83</v>
       </c>
       <c r="J13" t="s">
@@ -1997,27 +1996,27 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="C14" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="7" t="s">
         <v>89</v>
       </c>
       <c r="J14" t="s">
